--- a/Health Insurance/MOH_MODEL.xlsx
+++ b/Health Insurance/MOH_MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Health Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9BC507-E465-4658-92E0-1DC4BE47A1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4280384D-C65A-47FF-9338-06889E6357DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="233">
   <si>
     <t>Price</t>
   </si>
@@ -1452,6 +1452,45 @@
   </si>
   <si>
     <t>ConnectiCare - 350m purchase, 1.4bill premium revenue, 140k members</t>
+  </si>
+  <si>
+    <t>42.2 Premium Revenue, 44.5 total</t>
+  </si>
+  <si>
+    <t>256m net income</t>
+  </si>
+  <si>
+    <t>EPS &gt; 3.20</t>
+  </si>
+  <si>
+    <t>Adjusted EPS &gt; 5</t>
+  </si>
+  <si>
+    <t>4.6m Medicaid</t>
+  </si>
+  <si>
+    <t>230k Medicare</t>
+  </si>
+  <si>
+    <t>220k Marketplace</t>
+  </si>
+  <si>
+    <t>Full year 2026 guidance</t>
+  </si>
+  <si>
+    <t>92.6 MCR</t>
+  </si>
+  <si>
+    <t>92.9 Medicaid MCR</t>
+  </si>
+  <si>
+    <t>94 Medicare MCR</t>
+  </si>
+  <si>
+    <t>85.5 Marketplace MCR</t>
+  </si>
+  <si>
+    <t>(23 P/E at 119 a share)</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1501,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1582,8 +1621,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1593,6 +1638,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,7 +1748,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1781,14 +1838,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1806,6 +1871,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC25EA1-0A4A-94A1-7CD7-A1233F8F2426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13630275"/>
+          <a:ext cx="15916275" cy="9229725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2127,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2159,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>140.55000000000001</v>
+        <v>121.42</v>
       </c>
       <c r="C4" s="2">
         <v>45980</v>
@@ -2182,7 +2313,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>7224.27</v>
+        <v>6240.9880000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2196,7 +2327,7 @@
         <v>115</v>
       </c>
       <c r="E7" s="1">
-        <v>4324</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2219,7 +2350,7 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>2374.2700000000004</v>
+        <v>1390.9880000000003</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -2302,9 +2433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AQ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K37" sqref="K37"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2319,7 +2450,9 @@
     <col min="34" max="34" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="1"/>
+    <col min="37" max="37" width="9.140625" style="1"/>
+    <col min="38" max="38" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
@@ -2542,6 +2675,9 @@
       <c r="AI4" s="1">
         <v>4639</v>
       </c>
+      <c r="AJ4" s="1">
+        <v>4568</v>
+      </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" s="31" t="s">
@@ -2643,6 +2779,9 @@
       <c r="AI5" s="1">
         <v>266</v>
       </c>
+      <c r="AJ5" s="1">
+        <v>262</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
@@ -2744,6 +2883,9 @@
       <c r="AI6" s="1">
         <v>713</v>
       </c>
+      <c r="AJ6" s="1">
+        <v>655</v>
+      </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
@@ -2820,6 +2962,9 @@
       </c>
       <c r="AI7" s="1">
         <v>10</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:37" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2829,7 +2974,7 @@
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="8">
-        <f t="shared" ref="D8:AI8" si="0">SUM(D4:D7)</f>
+        <f t="shared" ref="D8:AJ8" si="0">SUM(D4:D7)</f>
         <v>4453</v>
       </c>
       <c r="E8" s="8">
@@ -2955,6 +3100,10 @@
       <c r="AI8" s="8">
         <f t="shared" si="0"/>
         <v>5628</v>
+      </c>
+      <c r="AJ8" s="8">
+        <f t="shared" si="0"/>
+        <v>5491</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -3088,6 +3237,9 @@
       <c r="AI10" s="1">
         <v>8015</v>
       </c>
+      <c r="AJ10" s="1">
+        <v>8066</v>
+      </c>
     </row>
     <row r="11" spans="1:37" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
@@ -3191,6 +3343,9 @@
       <c r="AI11" s="1">
         <v>1610</v>
       </c>
+      <c r="AJ11" s="1">
+        <v>1549</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
@@ -3293,6 +3448,9 @@
       </c>
       <c r="AI12" s="1">
         <v>1197</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1086</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
@@ -3377,6 +3535,9 @@
       <c r="AI13" s="1">
         <v>19</v>
       </c>
+      <c r="AJ13" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:37" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
@@ -3511,6 +3672,10 @@
       <c r="AI14" s="8">
         <f>SUM(AI10:AI13)</f>
         <v>10841</v>
+      </c>
+      <c r="AJ14" s="8">
+        <f>SUM(AJ10:AJ13)</f>
+        <v>10715</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
@@ -3642,6 +3807,9 @@
       <c r="AI16" s="46">
         <v>0.92</v>
       </c>
+      <c r="AJ16" s="46">
+        <v>0.93500000000000005</v>
+      </c>
     </row>
     <row r="17" spans="1:38" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="46" t="s">
@@ -3742,6 +3910,9 @@
       </c>
       <c r="AI17" s="46">
         <v>0.93600000000000005</v>
+      </c>
+      <c r="AJ17" s="46">
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -3845,6 +4016,9 @@
       <c r="AI18" s="29">
         <v>0.95599999999999996</v>
       </c>
+      <c r="AJ18" s="29">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="19" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
@@ -3947,6 +4121,9 @@
       <c r="AI19" s="29">
         <v>0.84099999999999997</v>
       </c>
+      <c r="AJ19" s="29">
+        <v>0.77600000000000002</v>
+      </c>
     </row>
     <row r="20" spans="1:38" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -4051,11 +4228,10 @@
         <v>11477</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" ref="AJ20:AK20" si="2">SUM(AJ10:AJ13)</f>
-        <v>0</v>
+        <v>11375</v>
       </c>
       <c r="AK20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AJ20:AK20" si="2">SUM(AK10:AK13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4161,6 +4337,9 @@
       <c r="AI21" s="1">
         <v>10044</v>
       </c>
+      <c r="AJ21" s="1">
+        <v>10136</v>
+      </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
@@ -4264,6 +4443,9 @@
       <c r="AI22" s="1">
         <v>729</v>
       </c>
+      <c r="AJ22" s="1">
+        <v>795</v>
+      </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
@@ -4367,6 +4549,9 @@
       <c r="AI23" s="1">
         <v>506</v>
       </c>
+      <c r="AJ23" s="1">
+        <v>538</v>
+      </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
@@ -4470,6 +4655,9 @@
       <c r="AI24" s="1">
         <v>45</v>
       </c>
+      <c r="AJ24" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
@@ -4573,6 +4761,9 @@
       <c r="AI25" s="1">
         <v>16</v>
       </c>
+      <c r="AJ25" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:38" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -4709,7 +4900,7 @@
       </c>
       <c r="AJ26" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-162</v>
       </c>
       <c r="AK26" s="4">
         <f t="shared" si="3"/>
@@ -4820,6 +5011,9 @@
       <c r="AI27" s="1">
         <v>88</v>
       </c>
+      <c r="AJ27" s="1">
+        <v>-214</v>
+      </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
@@ -4921,6 +5115,9 @@
       <c r="AI28" s="1">
         <v>9</v>
       </c>
+      <c r="AJ28" s="1">
+        <v>-54</v>
+      </c>
     </row>
     <row r="29" spans="1:38" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -5056,7 +5253,7 @@
       </c>
       <c r="AJ29" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="AK29" s="5">
         <f t="shared" si="9"/>
@@ -5168,6 +5365,9 @@
       <c r="AI30" s="1">
         <v>1.51</v>
       </c>
+      <c r="AJ30" s="1">
+        <v>-3.15</v>
+      </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B31" s="31" t="s">
@@ -5269,6 +5469,9 @@
       <c r="AI31" s="1">
         <v>52.5</v>
       </c>
+      <c r="AJ31" s="1">
+        <v>50.8</v>
+      </c>
     </row>
     <row r="33" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
@@ -5292,7 +5495,7 @@
         <v>-5.7587391392200482E-2</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" ref="I33:AI33" si="10">(I20/E20) - 1</f>
+        <f t="shared" ref="I33:AJ33" si="10">(I20/E20) - 1</f>
         <v>-0.11343090830822211</v>
       </c>
       <c r="J33" s="6">
@@ -5399,7 +5602,10 @@
         <f t="shared" si="10"/>
         <v>0.10996131528046416</v>
       </c>
-      <c r="AJ33" s="6"/>
+      <c r="AJ33" s="6">
+        <f t="shared" si="10"/>
+        <v>8.3436517763596507E-2</v>
+      </c>
       <c r="AK33" s="6"/>
       <c r="AL33" s="6"/>
       <c r="AM33" s="6"/>
@@ -5417,7 +5623,7 @@
         <v>-6.1224489795918324E-2</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:AI34" si="11" xml:space="preserve"> (F20/E20) - 1</f>
+        <f t="shared" ref="F34:AJ34" si="11" xml:space="preserve"> (F20/E20) - 1</f>
         <v>5.1011622901420584E-2</v>
       </c>
       <c r="G34" s="6">
@@ -5536,7 +5742,10 @@
         <f t="shared" si="11"/>
         <v>4.3756016452263236E-3</v>
       </c>
-      <c r="AJ34" s="6"/>
+      <c r="AJ34" s="6">
+        <f t="shared" si="11"/>
+        <v>-8.8873398971857087E-3</v>
+      </c>
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
       <c r="AM34" s="6"/>
@@ -5654,6 +5863,9 @@
       <c r="AI36" s="29">
         <v>0.92600000000000005</v>
       </c>
+      <c r="AJ36" s="29">
+        <v>0.94599999999999995</v>
+      </c>
     </row>
     <row r="37" spans="2:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="39" t="s">
@@ -5755,6 +5967,9 @@
       <c r="AI37" s="29">
         <v>7.0000000000000001E-3</v>
       </c>
+      <c r="AJ37" s="29">
+        <v>-1.4E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:43" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="39" t="s">
@@ -5855,6 +6070,9 @@
       </c>
       <c r="AI38" s="29">
         <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AJ38" s="29">
+        <v>-1.2E-2</v>
       </c>
     </row>
     <row r="39" spans="2:43" x14ac:dyDescent="0.2">
@@ -6376,7 +6594,7 @@
       <c r="AE47" s="12"/>
       <c r="AF47" s="12"/>
       <c r="AH47" s="13"/>
-      <c r="AI47" s="41" t="s">
+      <c r="AI47" s="65" t="s">
         <v>158</v>
       </c>
       <c r="AJ47" s="12"/>
@@ -6390,7 +6608,7 @@
     </row>
     <row r="48" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
-      <c r="AI48" s="31" t="s">
+      <c r="AI48" s="66" t="s">
         <v>159</v>
       </c>
       <c r="AQ48" s="16"/>
@@ -6398,7 +6616,7 @@
     <row r="49" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="AH49" s="17"/>
-      <c r="AI49" s="43" t="s">
+      <c r="AI49" s="67" t="s">
         <v>160</v>
       </c>
       <c r="AQ49" s="16"/>
@@ -6437,7 +6655,7 @@
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
-      <c r="AI50" s="44" t="s">
+      <c r="AI50" s="68" t="s">
         <v>161</v>
       </c>
       <c r="AJ50" s="19"/>
@@ -6450,9 +6668,13 @@
       <c r="AQ50" s="20"/>
     </row>
     <row r="51" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AI51" s="31" t="s">
+      <c r="AI51" s="69" t="s">
         <v>162</v>
       </c>
+      <c r="AJ51" s="70"/>
+      <c r="AK51" s="70"/>
+      <c r="AL51" s="70"/>
+      <c r="AM51" s="70"/>
     </row>
     <row r="52" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
@@ -6491,9 +6713,13 @@
       </c>
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
-      <c r="AI52" s="31" t="s">
+      <c r="AI52" s="69" t="s">
         <v>163</v>
       </c>
+      <c r="AJ52" s="70"/>
+      <c r="AK52" s="70"/>
+      <c r="AL52" s="70"/>
+      <c r="AM52" s="70"/>
     </row>
     <row r="53" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
@@ -6567,617 +6793,658 @@
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
-    </row>
-    <row r="57" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="AJ56" s="72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="71" t="s">
+        <v>220</v>
+      </c>
+    </row>
     <row r="58" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
+      <c r="AJ58" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN58" s="71" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="59" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
+      <c r="AJ59" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL59" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN59" s="71" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="60" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
+      <c r="AJ60" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN60" s="71" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="61" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
+      <c r="AJ61" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN61" s="71" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="62" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="AJ62" s="71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="2:43" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ63" s="71" t="s">
+        <v>226</v>
+      </c>
+    </row>
     <row r="64" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="63"/>
-      <c r="U64" s="63"/>
-      <c r="V64" s="63"/>
-      <c r="W64" s="63"/>
-      <c r="X64" s="63"/>
-      <c r="Y64" s="63"/>
-      <c r="Z64" s="63"/>
-      <c r="AA64" s="63"/>
-      <c r="AB64" s="63"/>
-      <c r="AC64" s="63"/>
-      <c r="AD64" s="63"/>
-      <c r="AE64" s="63"/>
-      <c r="AF64" s="63"/>
-      <c r="AG64" s="63"/>
-      <c r="AH64" s="63"/>
-      <c r="AI64" s="63"/>
-      <c r="AJ64" s="63"/>
-      <c r="AK64" s="63"/>
-      <c r="AL64" s="63"/>
-      <c r="AM64" s="63"/>
-      <c r="AN64" s="63"/>
-      <c r="AO64" s="63"/>
-      <c r="AP64" s="63"/>
-      <c r="AQ64" s="64"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="58"/>
+      <c r="O64" s="58"/>
+      <c r="P64" s="58"/>
+      <c r="Q64" s="58"/>
+      <c r="R64" s="58"/>
+      <c r="S64" s="58"/>
+      <c r="T64" s="58"/>
+      <c r="U64" s="58"/>
+      <c r="V64" s="58"/>
+      <c r="W64" s="58"/>
+      <c r="X64" s="58"/>
+      <c r="Y64" s="58"/>
+      <c r="Z64" s="58"/>
+      <c r="AA64" s="58"/>
+      <c r="AB64" s="58"/>
+      <c r="AC64" s="58"/>
+      <c r="AD64" s="58"/>
+      <c r="AE64" s="58"/>
+      <c r="AF64" s="58"/>
+      <c r="AG64" s="58"/>
+      <c r="AH64" s="58"/>
+      <c r="AI64" s="58"/>
+      <c r="AJ64" s="58"/>
+      <c r="AK64" s="58"/>
+      <c r="AL64" s="58"/>
+      <c r="AM64" s="58"/>
+      <c r="AN64" s="58"/>
+      <c r="AO64" s="58"/>
+      <c r="AP64" s="58"/>
+      <c r="AQ64" s="59"/>
     </row>
     <row r="65" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="59"/>
-      <c r="Y65" s="59"/>
-      <c r="Z65" s="59"/>
-      <c r="AA65" s="59"/>
-      <c r="AB65" s="59"/>
-      <c r="AC65" s="59"/>
-      <c r="AD65" s="59"/>
-      <c r="AE65" s="59"/>
-      <c r="AF65" s="59"/>
-      <c r="AG65" s="59"/>
-      <c r="AH65" s="59"/>
-      <c r="AI65" s="59"/>
-      <c r="AJ65" s="59"/>
-      <c r="AK65" s="59"/>
-      <c r="AL65" s="59"/>
-      <c r="AM65" s="59"/>
-      <c r="AN65" s="59"/>
-      <c r="AO65" s="59"/>
-      <c r="AP65" s="59"/>
-      <c r="AQ65" s="60"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="61"/>
+      <c r="AF65" s="61"/>
+      <c r="AG65" s="61"/>
+      <c r="AH65" s="61"/>
+      <c r="AI65" s="61"/>
+      <c r="AJ65" s="61"/>
+      <c r="AK65" s="61"/>
+      <c r="AL65" s="61"/>
+      <c r="AM65" s="61"/>
+      <c r="AN65" s="61"/>
+      <c r="AO65" s="61"/>
+      <c r="AP65" s="61"/>
+      <c r="AQ65" s="62"/>
     </row>
     <row r="66" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="15"/>
-      <c r="C66" s="61" t="s">
+      <c r="C66" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="59"/>
-      <c r="Y66" s="59"/>
-      <c r="Z66" s="59"/>
-      <c r="AA66" s="59"/>
-      <c r="AB66" s="59"/>
-      <c r="AC66" s="59"/>
-      <c r="AD66" s="59"/>
-      <c r="AE66" s="59"/>
-      <c r="AF66" s="59"/>
-      <c r="AG66" s="59"/>
-      <c r="AH66" s="59"/>
-      <c r="AI66" s="59"/>
-      <c r="AJ66" s="59"/>
-      <c r="AK66" s="59"/>
-      <c r="AL66" s="59"/>
-      <c r="AM66" s="59"/>
-      <c r="AN66" s="59"/>
-      <c r="AO66" s="59"/>
-      <c r="AP66" s="59"/>
-      <c r="AQ66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="61"/>
+      <c r="Y66" s="61"/>
+      <c r="Z66" s="61"/>
+      <c r="AA66" s="61"/>
+      <c r="AB66" s="61"/>
+      <c r="AC66" s="61"/>
+      <c r="AD66" s="61"/>
+      <c r="AE66" s="61"/>
+      <c r="AF66" s="61"/>
+      <c r="AG66" s="61"/>
+      <c r="AH66" s="61"/>
+      <c r="AI66" s="61"/>
+      <c r="AJ66" s="61"/>
+      <c r="AK66" s="61"/>
+      <c r="AL66" s="61"/>
+      <c r="AM66" s="61"/>
+      <c r="AN66" s="61"/>
+      <c r="AO66" s="61"/>
+      <c r="AP66" s="61"/>
+      <c r="AQ66" s="62"/>
     </row>
     <row r="67" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="15"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="59"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="59"/>
-      <c r="Y67" s="59"/>
-      <c r="Z67" s="59"/>
-      <c r="AA67" s="59"/>
-      <c r="AB67" s="59"/>
-      <c r="AC67" s="59"/>
-      <c r="AD67" s="59"/>
-      <c r="AE67" s="59"/>
-      <c r="AF67" s="59"/>
-      <c r="AG67" s="59"/>
-      <c r="AH67" s="59"/>
-      <c r="AI67" s="59"/>
-      <c r="AJ67" s="59"/>
-      <c r="AK67" s="59"/>
-      <c r="AL67" s="59"/>
-      <c r="AM67" s="59"/>
-      <c r="AN67" s="59"/>
-      <c r="AO67" s="59"/>
-      <c r="AP67" s="59"/>
-      <c r="AQ67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="61"/>
+      <c r="V67" s="61"/>
+      <c r="W67" s="61"/>
+      <c r="X67" s="61"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="61"/>
+      <c r="AA67" s="61"/>
+      <c r="AB67" s="61"/>
+      <c r="AC67" s="61"/>
+      <c r="AD67" s="61"/>
+      <c r="AE67" s="61"/>
+      <c r="AF67" s="61"/>
+      <c r="AG67" s="61"/>
+      <c r="AH67" s="61"/>
+      <c r="AI67" s="61"/>
+      <c r="AJ67" s="61"/>
+      <c r="AK67" s="61"/>
+      <c r="AL67" s="61"/>
+      <c r="AM67" s="61"/>
+      <c r="AN67" s="61"/>
+      <c r="AO67" s="61"/>
+      <c r="AP67" s="61"/>
+      <c r="AQ67" s="62"/>
     </row>
     <row r="68" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="15"/>
-      <c r="C68" s="61" t="s">
+      <c r="C68" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
-      <c r="T68" s="59"/>
-      <c r="U68" s="59"/>
-      <c r="V68" s="59"/>
-      <c r="W68" s="59"/>
-      <c r="X68" s="59"/>
-      <c r="Y68" s="59"/>
-      <c r="Z68" s="59"/>
-      <c r="AA68" s="59"/>
-      <c r="AB68" s="59"/>
-      <c r="AC68" s="59"/>
-      <c r="AD68" s="59"/>
-      <c r="AE68" s="59"/>
-      <c r="AF68" s="59"/>
-      <c r="AG68" s="59"/>
-      <c r="AH68" s="59"/>
-      <c r="AI68" s="59"/>
-      <c r="AJ68" s="59"/>
-      <c r="AK68" s="59"/>
-      <c r="AL68" s="59"/>
-      <c r="AM68" s="59"/>
-      <c r="AN68" s="59"/>
-      <c r="AO68" s="59"/>
-      <c r="AP68" s="59"/>
-      <c r="AQ68" s="60"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="61"/>
+      <c r="U68" s="61"/>
+      <c r="V68" s="61"/>
+      <c r="W68" s="61"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="61"/>
+      <c r="AA68" s="61"/>
+      <c r="AB68" s="61"/>
+      <c r="AC68" s="61"/>
+      <c r="AD68" s="61"/>
+      <c r="AE68" s="61"/>
+      <c r="AF68" s="61"/>
+      <c r="AG68" s="61"/>
+      <c r="AH68" s="61"/>
+      <c r="AI68" s="61"/>
+      <c r="AJ68" s="61"/>
+      <c r="AK68" s="61"/>
+      <c r="AL68" s="61"/>
+      <c r="AM68" s="61"/>
+      <c r="AN68" s="61"/>
+      <c r="AO68" s="61"/>
+      <c r="AP68" s="61"/>
+      <c r="AQ68" s="62"/>
     </row>
     <row r="69" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="15"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="59"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-      <c r="AA69" s="59"/>
-      <c r="AB69" s="59"/>
-      <c r="AC69" s="59"/>
-      <c r="AD69" s="59"/>
-      <c r="AE69" s="59"/>
-      <c r="AF69" s="59"/>
-      <c r="AG69" s="59"/>
-      <c r="AH69" s="59"/>
-      <c r="AI69" s="59"/>
-      <c r="AJ69" s="59"/>
-      <c r="AK69" s="59"/>
-      <c r="AL69" s="59"/>
-      <c r="AM69" s="59"/>
-      <c r="AN69" s="59"/>
-      <c r="AO69" s="59"/>
-      <c r="AP69" s="59"/>
-      <c r="AQ69" s="60"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="61"/>
+      <c r="U69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="61"/>
+      <c r="Z69" s="61"/>
+      <c r="AA69" s="61"/>
+      <c r="AB69" s="61"/>
+      <c r="AC69" s="61"/>
+      <c r="AD69" s="61"/>
+      <c r="AE69" s="61"/>
+      <c r="AF69" s="61"/>
+      <c r="AG69" s="61"/>
+      <c r="AH69" s="61"/>
+      <c r="AI69" s="61"/>
+      <c r="AJ69" s="61"/>
+      <c r="AK69" s="61"/>
+      <c r="AL69" s="61"/>
+      <c r="AM69" s="61"/>
+      <c r="AN69" s="61"/>
+      <c r="AO69" s="61"/>
+      <c r="AP69" s="61"/>
+      <c r="AQ69" s="62"/>
     </row>
     <row r="70" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="15"/>
-      <c r="C70" s="61" t="s">
+      <c r="C70" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
-      <c r="S70" s="59"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="59"/>
-      <c r="V70" s="59"/>
-      <c r="W70" s="59"/>
-      <c r="X70" s="59"/>
-      <c r="Y70" s="59"/>
-      <c r="Z70" s="59"/>
-      <c r="AA70" s="59"/>
-      <c r="AB70" s="59"/>
-      <c r="AC70" s="59"/>
-      <c r="AD70" s="59"/>
-      <c r="AE70" s="59"/>
-      <c r="AF70" s="59"/>
-      <c r="AG70" s="59"/>
-      <c r="AH70" s="59"/>
-      <c r="AI70" s="59"/>
-      <c r="AJ70" s="59"/>
-      <c r="AK70" s="59"/>
-      <c r="AL70" s="59"/>
-      <c r="AM70" s="59"/>
-      <c r="AN70" s="59"/>
-      <c r="AO70" s="59"/>
-      <c r="AP70" s="59"/>
-      <c r="AQ70" s="60"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="61"/>
+      <c r="U70" s="61"/>
+      <c r="V70" s="61"/>
+      <c r="W70" s="61"/>
+      <c r="X70" s="61"/>
+      <c r="Y70" s="61"/>
+      <c r="Z70" s="61"/>
+      <c r="AA70" s="61"/>
+      <c r="AB70" s="61"/>
+      <c r="AC70" s="61"/>
+      <c r="AD70" s="61"/>
+      <c r="AE70" s="61"/>
+      <c r="AF70" s="61"/>
+      <c r="AG70" s="61"/>
+      <c r="AH70" s="61"/>
+      <c r="AI70" s="61"/>
+      <c r="AJ70" s="61"/>
+      <c r="AK70" s="61"/>
+      <c r="AL70" s="61"/>
+      <c r="AM70" s="61"/>
+      <c r="AN70" s="61"/>
+      <c r="AO70" s="61"/>
+      <c r="AP70" s="61"/>
+      <c r="AQ70" s="62"/>
     </row>
     <row r="71" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="15"/>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="59"/>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="59"/>
-      <c r="AA71" s="59"/>
-      <c r="AB71" s="59"/>
-      <c r="AC71" s="59"/>
-      <c r="AD71" s="59"/>
-      <c r="AE71" s="59"/>
-      <c r="AF71" s="59"/>
-      <c r="AG71" s="59"/>
-      <c r="AH71" s="59"/>
-      <c r="AI71" s="59"/>
-      <c r="AJ71" s="59"/>
-      <c r="AK71" s="59"/>
-      <c r="AL71" s="59"/>
-      <c r="AM71" s="59"/>
-      <c r="AN71" s="59"/>
-      <c r="AO71" s="59"/>
-      <c r="AP71" s="59"/>
-      <c r="AQ71" s="60"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="61"/>
+      <c r="U71" s="61"/>
+      <c r="V71" s="61"/>
+      <c r="W71" s="61"/>
+      <c r="X71" s="61"/>
+      <c r="Y71" s="61"/>
+      <c r="Z71" s="61"/>
+      <c r="AA71" s="61"/>
+      <c r="AB71" s="61"/>
+      <c r="AC71" s="61"/>
+      <c r="AD71" s="61"/>
+      <c r="AE71" s="61"/>
+      <c r="AF71" s="61"/>
+      <c r="AG71" s="61"/>
+      <c r="AH71" s="61"/>
+      <c r="AI71" s="61"/>
+      <c r="AJ71" s="61"/>
+      <c r="AK71" s="61"/>
+      <c r="AL71" s="61"/>
+      <c r="AM71" s="61"/>
+      <c r="AN71" s="61"/>
+      <c r="AO71" s="61"/>
+      <c r="AP71" s="61"/>
+      <c r="AQ71" s="62"/>
     </row>
     <row r="72" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="15"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="59"/>
-      <c r="AE72" s="59"/>
-      <c r="AF72" s="59"/>
-      <c r="AG72" s="59"/>
-      <c r="AH72" s="59"/>
-      <c r="AI72" s="59"/>
-      <c r="AJ72" s="59"/>
-      <c r="AK72" s="59"/>
-      <c r="AL72" s="59"/>
-      <c r="AM72" s="59"/>
-      <c r="AN72" s="59"/>
-      <c r="AO72" s="59"/>
-      <c r="AP72" s="59"/>
-      <c r="AQ72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="61"/>
+      <c r="AC72" s="61"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
+      <c r="AF72" s="61"/>
+      <c r="AG72" s="61"/>
+      <c r="AH72" s="61"/>
+      <c r="AI72" s="61"/>
+      <c r="AJ72" s="61"/>
+      <c r="AK72" s="61"/>
+      <c r="AL72" s="61"/>
+      <c r="AM72" s="61"/>
+      <c r="AN72" s="61"/>
+      <c r="AO72" s="61"/>
+      <c r="AP72" s="61"/>
+      <c r="AQ72" s="62"/>
     </row>
     <row r="73" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="15"/>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="59"/>
-      <c r="S73" s="59"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="59"/>
-      <c r="V73" s="59"/>
-      <c r="W73" s="59"/>
-      <c r="X73" s="59"/>
-      <c r="Y73" s="59"/>
-      <c r="Z73" s="59"/>
-      <c r="AA73" s="59"/>
-      <c r="AB73" s="59"/>
-      <c r="AC73" s="59"/>
-      <c r="AD73" s="59"/>
-      <c r="AE73" s="59"/>
-      <c r="AF73" s="59"/>
-      <c r="AG73" s="59"/>
-      <c r="AH73" s="59"/>
-      <c r="AI73" s="59"/>
-      <c r="AJ73" s="59"/>
-      <c r="AK73" s="59"/>
-      <c r="AL73" s="59"/>
-      <c r="AM73" s="59"/>
-      <c r="AN73" s="59"/>
-      <c r="AO73" s="59"/>
-      <c r="AP73" s="59"/>
-      <c r="AQ73" s="60"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="61"/>
+      <c r="U73" s="61"/>
+      <c r="V73" s="61"/>
+      <c r="W73" s="61"/>
+      <c r="X73" s="61"/>
+      <c r="Y73" s="61"/>
+      <c r="Z73" s="61"/>
+      <c r="AA73" s="61"/>
+      <c r="AB73" s="61"/>
+      <c r="AC73" s="61"/>
+      <c r="AD73" s="61"/>
+      <c r="AE73" s="61"/>
+      <c r="AF73" s="61"/>
+      <c r="AG73" s="61"/>
+      <c r="AH73" s="61"/>
+      <c r="AI73" s="61"/>
+      <c r="AJ73" s="61"/>
+      <c r="AK73" s="61"/>
+      <c r="AL73" s="61"/>
+      <c r="AM73" s="61"/>
+      <c r="AN73" s="61"/>
+      <c r="AO73" s="61"/>
+      <c r="AP73" s="61"/>
+      <c r="AQ73" s="62"/>
     </row>
     <row r="74" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="15"/>
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="59"/>
-      <c r="S74" s="59"/>
-      <c r="T74" s="59"/>
-      <c r="U74" s="59"/>
-      <c r="V74" s="59"/>
-      <c r="W74" s="59"/>
-      <c r="X74" s="59"/>
-      <c r="Y74" s="59"/>
-      <c r="Z74" s="59"/>
-      <c r="AA74" s="59"/>
-      <c r="AB74" s="59"/>
-      <c r="AC74" s="59"/>
-      <c r="AD74" s="59"/>
-      <c r="AE74" s="59"/>
-      <c r="AF74" s="59"/>
-      <c r="AG74" s="59"/>
-      <c r="AH74" s="59"/>
-      <c r="AI74" s="59"/>
-      <c r="AJ74" s="59"/>
-      <c r="AK74" s="59"/>
-      <c r="AL74" s="59"/>
-      <c r="AM74" s="59"/>
-      <c r="AN74" s="59"/>
-      <c r="AO74" s="59"/>
-      <c r="AP74" s="59"/>
-      <c r="AQ74" s="60"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="61"/>
+      <c r="U74" s="61"/>
+      <c r="V74" s="61"/>
+      <c r="W74" s="61"/>
+      <c r="X74" s="61"/>
+      <c r="Y74" s="61"/>
+      <c r="Z74" s="61"/>
+      <c r="AA74" s="61"/>
+      <c r="AB74" s="61"/>
+      <c r="AC74" s="61"/>
+      <c r="AD74" s="61"/>
+      <c r="AE74" s="61"/>
+      <c r="AF74" s="61"/>
+      <c r="AG74" s="61"/>
+      <c r="AH74" s="61"/>
+      <c r="AI74" s="61"/>
+      <c r="AJ74" s="61"/>
+      <c r="AK74" s="61"/>
+      <c r="AL74" s="61"/>
+      <c r="AM74" s="61"/>
+      <c r="AN74" s="61"/>
+      <c r="AO74" s="61"/>
+      <c r="AP74" s="61"/>
+      <c r="AQ74" s="62"/>
     </row>
     <row r="75" spans="2:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="15"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="59"/>
-      <c r="S75" s="59"/>
-      <c r="T75" s="59"/>
-      <c r="U75" s="59"/>
-      <c r="V75" s="59"/>
-      <c r="W75" s="59"/>
-      <c r="X75" s="59"/>
-      <c r="Y75" s="59"/>
-      <c r="Z75" s="59"/>
-      <c r="AA75" s="59"/>
-      <c r="AB75" s="59"/>
-      <c r="AC75" s="59"/>
-      <c r="AD75" s="59"/>
-      <c r="AE75" s="59"/>
-      <c r="AF75" s="59"/>
-      <c r="AG75" s="59"/>
-      <c r="AH75" s="59"/>
-      <c r="AI75" s="59"/>
-      <c r="AJ75" s="59"/>
-      <c r="AK75" s="59"/>
-      <c r="AL75" s="59"/>
-      <c r="AM75" s="59"/>
-      <c r="AN75" s="59"/>
-      <c r="AO75" s="59"/>
-      <c r="AP75" s="59"/>
-      <c r="AQ75" s="60"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="61"/>
+      <c r="U75" s="61"/>
+      <c r="V75" s="61"/>
+      <c r="W75" s="61"/>
+      <c r="X75" s="61"/>
+      <c r="Y75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="61"/>
+      <c r="AB75" s="61"/>
+      <c r="AC75" s="61"/>
+      <c r="AD75" s="61"/>
+      <c r="AE75" s="61"/>
+      <c r="AF75" s="61"/>
+      <c r="AG75" s="61"/>
+      <c r="AH75" s="61"/>
+      <c r="AI75" s="61"/>
+      <c r="AJ75" s="61"/>
+      <c r="AK75" s="61"/>
+      <c r="AL75" s="61"/>
+      <c r="AM75" s="61"/>
+      <c r="AN75" s="61"/>
+      <c r="AO75" s="61"/>
+      <c r="AP75" s="61"/>
+      <c r="AQ75" s="62"/>
     </row>
     <row r="76" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="15"/>
-      <c r="C76" s="61" t="s">
+      <c r="C76" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="59"/>
-      <c r="S76" s="59"/>
-      <c r="T76" s="59"/>
-      <c r="U76" s="59"/>
-      <c r="V76" s="59"/>
-      <c r="W76" s="59"/>
-      <c r="X76" s="59"/>
-      <c r="Y76" s="59"/>
-      <c r="Z76" s="59"/>
-      <c r="AA76" s="59"/>
-      <c r="AB76" s="59"/>
-      <c r="AC76" s="59"/>
-      <c r="AD76" s="59"/>
-      <c r="AE76" s="59"/>
-      <c r="AF76" s="59"/>
-      <c r="AG76" s="59"/>
-      <c r="AH76" s="59"/>
-      <c r="AI76" s="59"/>
-      <c r="AJ76" s="59"/>
-      <c r="AK76" s="59"/>
-      <c r="AL76" s="59"/>
-      <c r="AM76" s="59"/>
-      <c r="AN76" s="59"/>
-      <c r="AO76" s="59"/>
-      <c r="AP76" s="59"/>
-      <c r="AQ76" s="60"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
+      <c r="T76" s="61"/>
+      <c r="U76" s="61"/>
+      <c r="V76" s="61"/>
+      <c r="W76" s="61"/>
+      <c r="X76" s="61"/>
+      <c r="Y76" s="61"/>
+      <c r="Z76" s="61"/>
+      <c r="AA76" s="61"/>
+      <c r="AB76" s="61"/>
+      <c r="AC76" s="61"/>
+      <c r="AD76" s="61"/>
+      <c r="AE76" s="61"/>
+      <c r="AF76" s="61"/>
+      <c r="AG76" s="61"/>
+      <c r="AH76" s="61"/>
+      <c r="AI76" s="61"/>
+      <c r="AJ76" s="61"/>
+      <c r="AK76" s="61"/>
+      <c r="AL76" s="61"/>
+      <c r="AM76" s="61"/>
+      <c r="AN76" s="61"/>
+      <c r="AO76" s="61"/>
+      <c r="AP76" s="61"/>
+      <c r="AQ76" s="62"/>
     </row>
     <row r="77" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="15"/>
@@ -7187,539 +7454,550 @@
     </row>
     <row r="78" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="15"/>
-      <c r="C78" s="61" t="s">
+      <c r="C78" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="59"/>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="59"/>
-      <c r="S78" s="59"/>
-      <c r="T78" s="59"/>
-      <c r="U78" s="59"/>
-      <c r="V78" s="59"/>
-      <c r="W78" s="59"/>
-      <c r="X78" s="59"/>
-      <c r="Y78" s="59"/>
-      <c r="Z78" s="59"/>
-      <c r="AA78" s="59"/>
-      <c r="AB78" s="59"/>
-      <c r="AC78" s="59"/>
-      <c r="AD78" s="59"/>
-      <c r="AE78" s="59"/>
-      <c r="AF78" s="59"/>
-      <c r="AG78" s="59"/>
-      <c r="AH78" s="59"/>
-      <c r="AI78" s="59"/>
-      <c r="AJ78" s="59"/>
-      <c r="AK78" s="59"/>
-      <c r="AL78" s="59"/>
-      <c r="AM78" s="59"/>
-      <c r="AN78" s="59"/>
-      <c r="AO78" s="59"/>
-      <c r="AP78" s="59"/>
-      <c r="AQ78" s="60"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="61"/>
+      <c r="U78" s="61"/>
+      <c r="V78" s="61"/>
+      <c r="W78" s="61"/>
+      <c r="X78" s="61"/>
+      <c r="Y78" s="61"/>
+      <c r="Z78" s="61"/>
+      <c r="AA78" s="61"/>
+      <c r="AB78" s="61"/>
+      <c r="AC78" s="61"/>
+      <c r="AD78" s="61"/>
+      <c r="AE78" s="61"/>
+      <c r="AF78" s="61"/>
+      <c r="AG78" s="61"/>
+      <c r="AH78" s="61"/>
+      <c r="AI78" s="61"/>
+      <c r="AJ78" s="61"/>
+      <c r="AK78" s="61"/>
+      <c r="AL78" s="61"/>
+      <c r="AM78" s="61"/>
+      <c r="AN78" s="61"/>
+      <c r="AO78" s="61"/>
+      <c r="AP78" s="61"/>
+      <c r="AQ78" s="62"/>
     </row>
     <row r="79" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="15"/>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="59"/>
-      <c r="S79" s="59"/>
-      <c r="T79" s="59"/>
-      <c r="U79" s="59"/>
-      <c r="V79" s="59"/>
-      <c r="W79" s="59"/>
-      <c r="X79" s="59"/>
-      <c r="Y79" s="59"/>
-      <c r="Z79" s="59"/>
-      <c r="AA79" s="59"/>
-      <c r="AB79" s="59"/>
-      <c r="AC79" s="59"/>
-      <c r="AD79" s="59"/>
-      <c r="AE79" s="59"/>
-      <c r="AF79" s="59"/>
-      <c r="AG79" s="59"/>
-      <c r="AH79" s="59"/>
-      <c r="AI79" s="59"/>
-      <c r="AJ79" s="59"/>
-      <c r="AK79" s="59"/>
-      <c r="AL79" s="59"/>
-      <c r="AM79" s="59"/>
-      <c r="AN79" s="59"/>
-      <c r="AO79" s="59"/>
-      <c r="AP79" s="59"/>
-      <c r="AQ79" s="60"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="61"/>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="61"/>
+      <c r="S79" s="61"/>
+      <c r="T79" s="61"/>
+      <c r="U79" s="61"/>
+      <c r="V79" s="61"/>
+      <c r="W79" s="61"/>
+      <c r="X79" s="61"/>
+      <c r="Y79" s="61"/>
+      <c r="Z79" s="61"/>
+      <c r="AA79" s="61"/>
+      <c r="AB79" s="61"/>
+      <c r="AC79" s="61"/>
+      <c r="AD79" s="61"/>
+      <c r="AE79" s="61"/>
+      <c r="AF79" s="61"/>
+      <c r="AG79" s="61"/>
+      <c r="AH79" s="61"/>
+      <c r="AI79" s="61"/>
+      <c r="AJ79" s="61"/>
+      <c r="AK79" s="61"/>
+      <c r="AL79" s="61"/>
+      <c r="AM79" s="61"/>
+      <c r="AN79" s="61"/>
+      <c r="AO79" s="61"/>
+      <c r="AP79" s="61"/>
+      <c r="AQ79" s="62"/>
     </row>
     <row r="80" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="15"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
-      <c r="S80" s="59"/>
-      <c r="T80" s="59"/>
-      <c r="U80" s="59"/>
-      <c r="V80" s="59"/>
-      <c r="W80" s="59"/>
-      <c r="X80" s="59"/>
-      <c r="Y80" s="59"/>
-      <c r="Z80" s="59"/>
-      <c r="AA80" s="59"/>
-      <c r="AB80" s="59"/>
-      <c r="AC80" s="59"/>
-      <c r="AD80" s="59"/>
-      <c r="AE80" s="59"/>
-      <c r="AF80" s="59"/>
-      <c r="AG80" s="59"/>
-      <c r="AH80" s="59"/>
-      <c r="AI80" s="59"/>
-      <c r="AJ80" s="59"/>
-      <c r="AK80" s="59"/>
-      <c r="AL80" s="59"/>
-      <c r="AM80" s="59"/>
-      <c r="AN80" s="59"/>
-      <c r="AO80" s="59"/>
-      <c r="AP80" s="59"/>
-      <c r="AQ80" s="60"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="61"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="61"/>
+      <c r="S80" s="61"/>
+      <c r="T80" s="61"/>
+      <c r="U80" s="61"/>
+      <c r="V80" s="61"/>
+      <c r="W80" s="61"/>
+      <c r="X80" s="61"/>
+      <c r="Y80" s="61"/>
+      <c r="Z80" s="61"/>
+      <c r="AA80" s="61"/>
+      <c r="AB80" s="61"/>
+      <c r="AC80" s="61"/>
+      <c r="AD80" s="61"/>
+      <c r="AE80" s="61"/>
+      <c r="AF80" s="61"/>
+      <c r="AG80" s="61"/>
+      <c r="AH80" s="61"/>
+      <c r="AI80" s="61"/>
+      <c r="AJ80" s="61"/>
+      <c r="AK80" s="61"/>
+      <c r="AL80" s="61"/>
+      <c r="AM80" s="61"/>
+      <c r="AN80" s="61"/>
+      <c r="AO80" s="61"/>
+      <c r="AP80" s="61"/>
+      <c r="AQ80" s="62"/>
     </row>
     <row r="81" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="15"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="59"/>
-      <c r="S81" s="59"/>
-      <c r="T81" s="59"/>
-      <c r="U81" s="59"/>
-      <c r="V81" s="59"/>
-      <c r="W81" s="59"/>
-      <c r="X81" s="59"/>
-      <c r="Y81" s="59"/>
-      <c r="Z81" s="59"/>
-      <c r="AA81" s="59"/>
-      <c r="AB81" s="59"/>
-      <c r="AC81" s="59"/>
-      <c r="AD81" s="59"/>
-      <c r="AE81" s="59"/>
-      <c r="AF81" s="59"/>
-      <c r="AG81" s="59"/>
-      <c r="AH81" s="59"/>
-      <c r="AI81" s="59"/>
-      <c r="AJ81" s="59"/>
-      <c r="AK81" s="59"/>
-      <c r="AL81" s="59"/>
-      <c r="AM81" s="59"/>
-      <c r="AN81" s="59"/>
-      <c r="AO81" s="59"/>
-      <c r="AP81" s="59"/>
-      <c r="AQ81" s="60"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="61"/>
+      <c r="U81" s="61"/>
+      <c r="V81" s="61"/>
+      <c r="W81" s="61"/>
+      <c r="X81" s="61"/>
+      <c r="Y81" s="61"/>
+      <c r="Z81" s="61"/>
+      <c r="AA81" s="61"/>
+      <c r="AB81" s="61"/>
+      <c r="AC81" s="61"/>
+      <c r="AD81" s="61"/>
+      <c r="AE81" s="61"/>
+      <c r="AF81" s="61"/>
+      <c r="AG81" s="61"/>
+      <c r="AH81" s="61"/>
+      <c r="AI81" s="61"/>
+      <c r="AJ81" s="61"/>
+      <c r="AK81" s="61"/>
+      <c r="AL81" s="61"/>
+      <c r="AM81" s="61"/>
+      <c r="AN81" s="61"/>
+      <c r="AO81" s="61"/>
+      <c r="AP81" s="61"/>
+      <c r="AQ81" s="62"/>
     </row>
     <row r="82" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="15"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="59"/>
-      <c r="S82" s="59"/>
-      <c r="T82" s="59"/>
-      <c r="U82" s="59"/>
-      <c r="V82" s="59"/>
-      <c r="W82" s="59"/>
-      <c r="X82" s="59"/>
-      <c r="Y82" s="59"/>
-      <c r="Z82" s="59"/>
-      <c r="AA82" s="59"/>
-      <c r="AB82" s="59"/>
-      <c r="AC82" s="59"/>
-      <c r="AD82" s="59"/>
-      <c r="AE82" s="59"/>
-      <c r="AF82" s="59"/>
-      <c r="AG82" s="59"/>
-      <c r="AH82" s="59"/>
-      <c r="AI82" s="59"/>
-      <c r="AJ82" s="59"/>
-      <c r="AK82" s="59"/>
-      <c r="AL82" s="59"/>
-      <c r="AM82" s="59"/>
-      <c r="AN82" s="59"/>
-      <c r="AO82" s="59"/>
-      <c r="AP82" s="59"/>
-      <c r="AQ82" s="60"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="61"/>
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
+      <c r="W82" s="61"/>
+      <c r="X82" s="61"/>
+      <c r="Y82" s="61"/>
+      <c r="Z82" s="61"/>
+      <c r="AA82" s="61"/>
+      <c r="AB82" s="61"/>
+      <c r="AC82" s="61"/>
+      <c r="AD82" s="61"/>
+      <c r="AE82" s="61"/>
+      <c r="AF82" s="61"/>
+      <c r="AG82" s="61"/>
+      <c r="AH82" s="61"/>
+      <c r="AI82" s="61"/>
+      <c r="AJ82" s="61"/>
+      <c r="AK82" s="61"/>
+      <c r="AL82" s="61"/>
+      <c r="AM82" s="61"/>
+      <c r="AN82" s="61"/>
+      <c r="AO82" s="61"/>
+      <c r="AP82" s="61"/>
+      <c r="AQ82" s="62"/>
     </row>
     <row r="83" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="59"/>
-      <c r="T83" s="59"/>
-      <c r="U83" s="59"/>
-      <c r="V83" s="59"/>
-      <c r="W83" s="59"/>
-      <c r="X83" s="59"/>
-      <c r="Y83" s="59"/>
-      <c r="Z83" s="59"/>
-      <c r="AA83" s="59"/>
-      <c r="AB83" s="59"/>
-      <c r="AC83" s="59"/>
-      <c r="AD83" s="59"/>
-      <c r="AE83" s="59"/>
-      <c r="AF83" s="59"/>
-      <c r="AG83" s="59"/>
-      <c r="AH83" s="59"/>
-      <c r="AI83" s="59"/>
-      <c r="AJ83" s="59"/>
-      <c r="AK83" s="59"/>
-      <c r="AL83" s="59"/>
-      <c r="AM83" s="59"/>
-      <c r="AN83" s="59"/>
-      <c r="AO83" s="59"/>
-      <c r="AP83" s="59"/>
-      <c r="AQ83" s="60"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="61"/>
+      <c r="S83" s="61"/>
+      <c r="T83" s="61"/>
+      <c r="U83" s="61"/>
+      <c r="V83" s="61"/>
+      <c r="W83" s="61"/>
+      <c r="X83" s="61"/>
+      <c r="Y83" s="61"/>
+      <c r="Z83" s="61"/>
+      <c r="AA83" s="61"/>
+      <c r="AB83" s="61"/>
+      <c r="AC83" s="61"/>
+      <c r="AD83" s="61"/>
+      <c r="AE83" s="61"/>
+      <c r="AF83" s="61"/>
+      <c r="AG83" s="61"/>
+      <c r="AH83" s="61"/>
+      <c r="AI83" s="61"/>
+      <c r="AJ83" s="61"/>
+      <c r="AK83" s="61"/>
+      <c r="AL83" s="61"/>
+      <c r="AM83" s="61"/>
+      <c r="AN83" s="61"/>
+      <c r="AO83" s="61"/>
+      <c r="AP83" s="61"/>
+      <c r="AQ83" s="62"/>
     </row>
     <row r="84" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="15"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="59"/>
-      <c r="U84" s="59"/>
-      <c r="V84" s="59"/>
-      <c r="W84" s="59"/>
-      <c r="X84" s="59"/>
-      <c r="Y84" s="59"/>
-      <c r="Z84" s="59"/>
-      <c r="AA84" s="59"/>
-      <c r="AB84" s="59"/>
-      <c r="AC84" s="59"/>
-      <c r="AD84" s="59"/>
-      <c r="AE84" s="59"/>
-      <c r="AF84" s="59"/>
-      <c r="AG84" s="59"/>
-      <c r="AH84" s="59"/>
-      <c r="AI84" s="59"/>
-      <c r="AJ84" s="59"/>
-      <c r="AK84" s="59"/>
-      <c r="AL84" s="59"/>
-      <c r="AM84" s="59"/>
-      <c r="AN84" s="59"/>
-      <c r="AO84" s="59"/>
-      <c r="AP84" s="59"/>
-      <c r="AQ84" s="60"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="61"/>
+      <c r="S84" s="61"/>
+      <c r="T84" s="61"/>
+      <c r="U84" s="61"/>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61"/>
+      <c r="X84" s="61"/>
+      <c r="Y84" s="61"/>
+      <c r="Z84" s="61"/>
+      <c r="AA84" s="61"/>
+      <c r="AB84" s="61"/>
+      <c r="AC84" s="61"/>
+      <c r="AD84" s="61"/>
+      <c r="AE84" s="61"/>
+      <c r="AF84" s="61"/>
+      <c r="AG84" s="61"/>
+      <c r="AH84" s="61"/>
+      <c r="AI84" s="61"/>
+      <c r="AJ84" s="61"/>
+      <c r="AK84" s="61"/>
+      <c r="AL84" s="61"/>
+      <c r="AM84" s="61"/>
+      <c r="AN84" s="61"/>
+      <c r="AO84" s="61"/>
+      <c r="AP84" s="61"/>
+      <c r="AQ84" s="62"/>
     </row>
     <row r="85" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="15"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
-      <c r="X85" s="59"/>
-      <c r="Y85" s="59"/>
-      <c r="Z85" s="59"/>
-      <c r="AA85" s="59"/>
-      <c r="AB85" s="59"/>
-      <c r="AC85" s="59"/>
-      <c r="AD85" s="59"/>
-      <c r="AE85" s="59"/>
-      <c r="AF85" s="59"/>
-      <c r="AG85" s="59"/>
-      <c r="AH85" s="59"/>
-      <c r="AI85" s="59"/>
-      <c r="AJ85" s="59"/>
-      <c r="AK85" s="59"/>
-      <c r="AL85" s="59"/>
-      <c r="AM85" s="59"/>
-      <c r="AN85" s="59"/>
-      <c r="AO85" s="59"/>
-      <c r="AP85" s="59"/>
-      <c r="AQ85" s="60"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
+      <c r="S85" s="61"/>
+      <c r="T85" s="61"/>
+      <c r="U85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="61"/>
+      <c r="Z85" s="61"/>
+      <c r="AA85" s="61"/>
+      <c r="AB85" s="61"/>
+      <c r="AC85" s="61"/>
+      <c r="AD85" s="61"/>
+      <c r="AE85" s="61"/>
+      <c r="AF85" s="61"/>
+      <c r="AG85" s="61"/>
+      <c r="AH85" s="61"/>
+      <c r="AI85" s="61"/>
+      <c r="AJ85" s="61"/>
+      <c r="AK85" s="61"/>
+      <c r="AL85" s="61"/>
+      <c r="AM85" s="61"/>
+      <c r="AN85" s="61"/>
+      <c r="AO85" s="61"/>
+      <c r="AP85" s="61"/>
+      <c r="AQ85" s="62"/>
     </row>
     <row r="86" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="15"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="59"/>
-      <c r="U86" s="59"/>
-      <c r="V86" s="59"/>
-      <c r="W86" s="59"/>
-      <c r="X86" s="59"/>
-      <c r="Y86" s="59"/>
-      <c r="Z86" s="59"/>
-      <c r="AA86" s="59"/>
-      <c r="AB86" s="59"/>
-      <c r="AC86" s="59"/>
-      <c r="AD86" s="59"/>
-      <c r="AE86" s="59"/>
-      <c r="AF86" s="59"/>
-      <c r="AG86" s="59"/>
-      <c r="AH86" s="59"/>
-      <c r="AI86" s="59"/>
-      <c r="AJ86" s="59"/>
-      <c r="AK86" s="59"/>
-      <c r="AL86" s="59"/>
-      <c r="AM86" s="59"/>
-      <c r="AN86" s="59"/>
-      <c r="AO86" s="59"/>
-      <c r="AP86" s="59"/>
-      <c r="AQ86" s="60"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="61"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="61"/>
+      <c r="S86" s="61"/>
+      <c r="T86" s="61"/>
+      <c r="U86" s="61"/>
+      <c r="V86" s="61"/>
+      <c r="W86" s="61"/>
+      <c r="X86" s="61"/>
+      <c r="Y86" s="61"/>
+      <c r="Z86" s="61"/>
+      <c r="AA86" s="61"/>
+      <c r="AB86" s="61"/>
+      <c r="AC86" s="61"/>
+      <c r="AD86" s="61"/>
+      <c r="AE86" s="61"/>
+      <c r="AF86" s="61"/>
+      <c r="AG86" s="61"/>
+      <c r="AH86" s="61"/>
+      <c r="AI86" s="61"/>
+      <c r="AJ86" s="61"/>
+      <c r="AK86" s="61"/>
+      <c r="AL86" s="61"/>
+      <c r="AM86" s="61"/>
+      <c r="AN86" s="61"/>
+      <c r="AO86" s="61"/>
+      <c r="AP86" s="61"/>
+      <c r="AQ86" s="62"/>
     </row>
     <row r="87" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="15"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="59"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="59"/>
-      <c r="S87" s="59"/>
-      <c r="T87" s="59"/>
-      <c r="U87" s="59"/>
-      <c r="V87" s="59"/>
-      <c r="W87" s="59"/>
-      <c r="X87" s="59"/>
-      <c r="Y87" s="59"/>
-      <c r="Z87" s="59"/>
-      <c r="AA87" s="59"/>
-      <c r="AB87" s="59"/>
-      <c r="AC87" s="59"/>
-      <c r="AD87" s="59"/>
-      <c r="AE87" s="59"/>
-      <c r="AF87" s="59"/>
-      <c r="AG87" s="59"/>
-      <c r="AH87" s="59"/>
-      <c r="AI87" s="59"/>
-      <c r="AJ87" s="59"/>
-      <c r="AK87" s="59"/>
-      <c r="AL87" s="59"/>
-      <c r="AM87" s="59"/>
-      <c r="AN87" s="59"/>
-      <c r="AO87" s="59"/>
-      <c r="AP87" s="59"/>
-      <c r="AQ87" s="60"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="61"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="61"/>
+      <c r="U87" s="61"/>
+      <c r="V87" s="61"/>
+      <c r="W87" s="61"/>
+      <c r="X87" s="61"/>
+      <c r="Y87" s="61"/>
+      <c r="Z87" s="61"/>
+      <c r="AA87" s="61"/>
+      <c r="AB87" s="61"/>
+      <c r="AC87" s="61"/>
+      <c r="AD87" s="61"/>
+      <c r="AE87" s="61"/>
+      <c r="AF87" s="61"/>
+      <c r="AG87" s="61"/>
+      <c r="AH87" s="61"/>
+      <c r="AI87" s="61"/>
+      <c r="AJ87" s="61"/>
+      <c r="AK87" s="61"/>
+      <c r="AL87" s="61"/>
+      <c r="AM87" s="61"/>
+      <c r="AN87" s="61"/>
+      <c r="AO87" s="61"/>
+      <c r="AP87" s="61"/>
+      <c r="AQ87" s="62"/>
     </row>
     <row r="88" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="15"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="59"/>
-      <c r="U88" s="59"/>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="59"/>
-      <c r="Z88" s="59"/>
-      <c r="AA88" s="59"/>
-      <c r="AB88" s="59"/>
-      <c r="AC88" s="59"/>
-      <c r="AD88" s="59"/>
-      <c r="AE88" s="59"/>
-      <c r="AF88" s="59"/>
-      <c r="AG88" s="59"/>
-      <c r="AH88" s="59"/>
-      <c r="AI88" s="59"/>
-      <c r="AJ88" s="59"/>
-      <c r="AK88" s="59"/>
-      <c r="AL88" s="59"/>
-      <c r="AM88" s="59"/>
-      <c r="AN88" s="59"/>
-      <c r="AO88" s="59"/>
-      <c r="AP88" s="59"/>
-      <c r="AQ88" s="60"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="61"/>
+      <c r="R88" s="61"/>
+      <c r="S88" s="61"/>
+      <c r="T88" s="61"/>
+      <c r="U88" s="61"/>
+      <c r="V88" s="61"/>
+      <c r="W88" s="61"/>
+      <c r="X88" s="61"/>
+      <c r="Y88" s="61"/>
+      <c r="Z88" s="61"/>
+      <c r="AA88" s="61"/>
+      <c r="AB88" s="61"/>
+      <c r="AC88" s="61"/>
+      <c r="AD88" s="61"/>
+      <c r="AE88" s="61"/>
+      <c r="AF88" s="61"/>
+      <c r="AG88" s="61"/>
+      <c r="AH88" s="61"/>
+      <c r="AI88" s="61"/>
+      <c r="AJ88" s="61"/>
+      <c r="AK88" s="61"/>
+      <c r="AL88" s="61"/>
+      <c r="AM88" s="61"/>
+      <c r="AN88" s="61"/>
+      <c r="AO88" s="61"/>
+      <c r="AP88" s="61"/>
+      <c r="AQ88" s="62"/>
     </row>
     <row r="89" spans="2:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="18"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="57"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="57"/>
-      <c r="O89" s="57"/>
-      <c r="P89" s="57"/>
-      <c r="Q89" s="57"/>
-      <c r="R89" s="57"/>
-      <c r="S89" s="57"/>
-      <c r="T89" s="57"/>
-      <c r="U89" s="57"/>
-      <c r="V89" s="57"/>
-      <c r="W89" s="57"/>
-      <c r="X89" s="57"/>
-      <c r="Y89" s="57"/>
-      <c r="Z89" s="57"/>
-      <c r="AA89" s="57"/>
-      <c r="AB89" s="57"/>
-      <c r="AC89" s="57"/>
-      <c r="AD89" s="57"/>
-      <c r="AE89" s="57"/>
-      <c r="AF89" s="57"/>
-      <c r="AG89" s="57"/>
-      <c r="AH89" s="57"/>
-      <c r="AI89" s="57"/>
-      <c r="AJ89" s="57"/>
-      <c r="AK89" s="57"/>
-      <c r="AL89" s="57"/>
-      <c r="AM89" s="57"/>
-      <c r="AN89" s="57"/>
-      <c r="AO89" s="57"/>
-      <c r="AP89" s="57"/>
-      <c r="AQ89" s="58"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="63"/>
+      <c r="L89" s="63"/>
+      <c r="M89" s="63"/>
+      <c r="N89" s="63"/>
+      <c r="O89" s="63"/>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="63"/>
+      <c r="R89" s="63"/>
+      <c r="S89" s="63"/>
+      <c r="T89" s="63"/>
+      <c r="U89" s="63"/>
+      <c r="V89" s="63"/>
+      <c r="W89" s="63"/>
+      <c r="X89" s="63"/>
+      <c r="Y89" s="63"/>
+      <c r="Z89" s="63"/>
+      <c r="AA89" s="63"/>
+      <c r="AB89" s="63"/>
+      <c r="AC89" s="63"/>
+      <c r="AD89" s="63"/>
+      <c r="AE89" s="63"/>
+      <c r="AF89" s="63"/>
+      <c r="AG89" s="63"/>
+      <c r="AH89" s="63"/>
+      <c r="AI89" s="63"/>
+      <c r="AJ89" s="63"/>
+      <c r="AK89" s="63"/>
+      <c r="AL89" s="63"/>
+      <c r="AM89" s="63"/>
+      <c r="AN89" s="63"/>
+      <c r="AO89" s="63"/>
+      <c r="AP89" s="63"/>
+      <c r="AQ89" s="64"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="C89:AQ89"/>
+    <mergeCell ref="C84:AQ84"/>
+    <mergeCell ref="C85:AQ85"/>
+    <mergeCell ref="C86:AQ86"/>
+    <mergeCell ref="C87:AQ87"/>
+    <mergeCell ref="C88:AQ88"/>
+    <mergeCell ref="C79:AQ79"/>
+    <mergeCell ref="C80:AQ80"/>
+    <mergeCell ref="C81:AQ81"/>
+    <mergeCell ref="C82:AQ82"/>
+    <mergeCell ref="C83:AQ83"/>
     <mergeCell ref="C64:AQ64"/>
     <mergeCell ref="C65:AQ65"/>
     <mergeCell ref="C76:AQ76"/>
@@ -7734,17 +8012,6 @@
     <mergeCell ref="C72:AQ72"/>
     <mergeCell ref="C73:AQ73"/>
     <mergeCell ref="C74:AQ74"/>
-    <mergeCell ref="C79:AQ79"/>
-    <mergeCell ref="C80:AQ80"/>
-    <mergeCell ref="C81:AQ81"/>
-    <mergeCell ref="C82:AQ82"/>
-    <mergeCell ref="C83:AQ83"/>
-    <mergeCell ref="C89:AQ89"/>
-    <mergeCell ref="C84:AQ84"/>
-    <mergeCell ref="C85:AQ85"/>
-    <mergeCell ref="C86:AQ86"/>
-    <mergeCell ref="C87:AQ87"/>
-    <mergeCell ref="C88:AQ88"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8700012B-1663-4F72-A9B4-B92390B41D1E}"/>
@@ -8354,10 +8621,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6E1341-7EB0-4324-B694-376A83CF0972}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8594,24 +8861,28 @@
         <v>204</v>
       </c>
     </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8759,14 +9030,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -8778,6 +9041,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
